--- a/deuChatbot/research_result/results/sem_score/sem_version_1(1500_500).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(1500_500).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6055,61 +6055,3378 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. **모집단위**: 시각디자인, 산업디자인, 공예디자인 중 택 1을 선택합니다.
+2. **종목별 배점(비율)**:
+   - 기초디자인: 700점 (70%)
+   - 사고의 전환: 300점 (30%)
+3. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+4. **실기주제**:
+   - 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+   - 예시: 
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+5. **화지크기**:
+   - 켄트지 3절 (A4 크기)
+6. **시간**: 5시간
+7. **주의사항**:
+   - 제공된 사물과 이미지 이외의 형상은 표현하지 마세요.
+   - 제공된 사물은 모두 1회 이상 표현해야 합니다.
+   - 제공된 사물의 색상은 변경하지 마세요.
+이러한 구성으로 디자인조형학과의 실기시험은 학생들의 창의성과 표현력을 평가합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7822411063313485</v>
+        <v>0.9229581952095032</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **기초디자인**
+2. **사고의 전환**
+각 실기종목별로 준비물, 실기주제, 화지크기 및 시간은 다음과 같습니다:
+- **기초디자인**
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+    - **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+    - **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - **화지크기**: 켄트지3절
+  - **시간**: 5시간
+- **사고의 전환**
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+    - **주제A**: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+    - **주제B**: 바이러스, 자유, 여행, 계절, 꿈
+  - **화지크기**: 켄트지2절
+  - **시간**: 5시간
+위 정보는 디자인조형학과의 실기 종목별 준비물, 실기주제, 화지 크기 및 시간을 요약한 것입니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.774868291914463</v>
+        <v>0.9119011163711548</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+1. 배드민턴(남):
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남):
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회의 인정은 국가대표팀, 주니어팀 소속으로 출전한 경우를 제외하고는 일반적으로 해당 대회에서의 성적을 기준으로 합니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9666503071784973</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 만드는 것이 요구됩니다. 아래는 제공된 예시 주제들입니다:
+주제A:
+- 잠자리
+- 무궁화
+- 피망
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+학생들은 주제A와 주제B 각각에서 하나를 선택하여 연결된 주제로 만드는 것이 필요합니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상도 변경해서는 안 됩니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9148154854774475</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 학생부교과 전형에서는 출결 점수가 반영됩니다. 
+특히 실기/실적(경기실적우수자전형)의 경우, 출결 점수가 다음과 같이 반영됩니다:
+- 출결 점수 비율: 12%
+- 전체 합계 점수에서의 비중: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+따라서 출결 점수가 전형 점수에 영향을 미칩니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.6582370400428772</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 / 
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.914333701133728</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.8246312141418457</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형에서 최대 선발 가능 인원이 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.8051446676254272</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 139점
+- 등급 2: 131점 
+- 등급 3: 123점
+- 등급 4: 115점
+- 등급 5: 107점
+- 등급 6: 99점
+- 등급 7: 91점
+- 등급 8: 83점
+- 등급 9: 75점
+이 점수들은 영어 등급별로 대략적인 변환점수를 나타내며, 실제 변환은 수능 성적 발표 후 입학 안내 홈페이지에서 공고됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8200104236602783</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 출신자는 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에 따르면 "농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다."라고 명시되어 있습니다. 따라서 예술고 학생은 이 전형으로 지원이 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.9537466764450073</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 해당 기록에 대한 배점은 275점입니다.
+따라서, 4등급의 기록과 배점은 다음과 같습니다:
+- 기록: 218~221cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8540899753570557</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%입니다. 
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 모집단위 / 전형요소 반영비율 { 학생부교과 / 출결 / 서류(경기실적) } ```
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% / } /
+```
+따라서 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.8574153780937195</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9864264130592346</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **내용**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 실기고사
+- **추가 정보**: 
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+이 일정은 전형일정 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7486594915390015</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 동의대학교의 수능 위주 모집단위들은 대부분 수능 최저기준을 명시하지 않았습니다.
+제공된 "수능 위주" 모집유형 표에서 응용화학과가 포함되어 있지 않으며, 해당 학과는 일반적으로 실기/실적 위주의 전형으로 운영되는 것 같습니다. 
+따라서 정확한 수능 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 공식 안내문을 참조하시거나 직접 문의하는 것이 가장 확실합니다.
+추가 정보:
+- 제공된 표에서 응용화학과는 "공과대학 / 공학 / 응용화학과"로 분류되어 있습니다.
+- 해당 학과는 실기/실적 위주의 전형으로 운영되는 것으로 보입니다.
+- 수능 최저기준이 명시되지 않은 경우, 일반적으로 3등급 이상의 수능 점수를 요구하는 경향이 있습니다만, 이는 각 학과별 정확한 기준을 반영하지 못합니다.
+따라서 궁금하신 사항은 동의대학교 입학처에 직접 문의하시거나 공식 홈페이지를 확인하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.6309859156608582</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+   - 하위 계열로 스마트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등이 포함되어 있습니다.
+2. 미래융합대학 - 부동산자산경역학부 (신설)
+   - 하위 계열로 부동산투자학, 부동산개발경영학 등이 포함되어 있습니다.
+3. 상경대학 - 스마트항만물류학과 (신설)
+4. 상경대학 - 창업투자경영학과 (신설)
+5. 예술디자인체육대학 - 경기지도학과 (신설)
+6. ICT융합공과대학 - 소프트웨어융합학과 (신설)
+   - 이 학과는 나군 학생부종합(조기취업형계약학과전형) 모집단위로도 신설되었습니다.
+이러한 신설 학과들은 2024학년도부터 개설되어 입학생을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.9495401382446289</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 정보는 [표 내용] 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9628158807754517</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학, ICT융합공과대학 모집단위에 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- **가산점 적용 대상**: 공과대학, ICT융합공과대학 모집단위
+- **조건**: 수학(미적분 또는 기하) 응시자
+- **가산점 내용**: 수학 취득 표준점수의 10%
+이 정보는 "가산점" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9505139589309692</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 or 언어와매체): 25%
+- 수학(확률과통계 or 미적분 or 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목): 각 25%
+특히, 한의예과 수학 응시자들의 경우:
+- 수학 (미적분 or 기하) 또는 (확률과통계)에 따라 반영 비율이 달라집니다.
+또한, 탐구 영역은 지정 과목 없이 백분위 변환 점수를 반영하며, 영어 영역은 등급에 따른 점수를 반영합니다.
+이러한 방식으로 수능 성적을 종합적으로 평가하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.881225049495697</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 다음과 같습니다:
+- 레저스포츠학과: 2024년 1월 16일 (화)
+- 태권도학과: 2024년 1월 17일 (수)
+이 날짜들에 대기실 및 입실시간 안내가 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9046180248260498</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 위주 모집단위로 분류되어 있습니다.
+따라서, 일반학생전형에서 제외된 모집단위는 다음과 같습니다:
+- 한의예과 (수학(미적분/기하) 또는 수학(확률과통계) 응시자)
+- 디자인조형학과
+- 체육학과
+- 경기지도학과
+이들 모집단위는 나군 실기/실적 위주 모집단위로 분류되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9614751935005188</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 적용되지 않습니다.
+이는 "전형요소 반영비율" 표에서 확인할 수 있습니다:
+``` 전형 유형 / 전형명 / 모집 인원 / 사정 단계 / 전형요소 반영비율(%){학생부교과 / 출결 / 서류 / 면접 / 실기 / 수능} / 수능최저기준 
+수능 위주 / 다군 수능(일반학생전형) 전 모집단위 / 180 / 일괄 합산 / { 0 /  0 /  0 /  0 /  0 /  100 / } / 수능최저기준 없음
+```
+이 표에서 다군 수능(일반학생전형)의 수능 최저기준 항목은 "수능최저기준 없음"으로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.7601674795150757</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 구체적으로는 다음과 같습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산투자학과, 부동산개발경영학과
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 일부 학과는 모집을 중지하였으며, 새로운 학과와 전공도 신설되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9884486198425293</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9814363718032837</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **학생부교과(성인학습자)전형**:
+   - **변경 전**: 학생부교과, 출결, 서류, 면접, 실기, 수능
+   - **변경 후**: 학생부교과, 출결, 서류, 면접, 실기, 수능 (비율 변경 없음)
+2. **학생부종합(재직자)전형**:
+   - **변경 전**: 학생부교과, 출결, 서류, 면접, 실기, 수능
+   - **변경 후**: 학생부교과, 출결, 서류, 면접, 실기, 수능 (비율 변경 없음)
+3. **학생부종합(조기취업형)전형**:
+   - **변경 전**: 학생부교과, 출결, 서류, 면접, 실기, 수능
+   - **변경 후**: 학생부교과, 출결, 서류, 면접, 실기, 수능 (비율 변경 없음)
+4. **실기/실적 위주 전형**:
+   - **변경 전**: 실기 70%, 수능 30%
+   - **변경 후**: 실기 70%, 수능 30% (비율 변경 없음)
+5. **수능 위주 전형**:
+   - **변경 전**: 수능 100%
+   - **변경 후**: 수능 100% (비율 변경 없음)
+이러한 변화는 주로 모집인원과 같은 요소에 대한 반영 비율의 조정이 아닌, 전형요소 자체의 추가나 제거가 아니라, 기존 요소들의 비율 유지를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.8644092082977295</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 "전형요소 반영비율" 표에서 확인할 수 있습니다. 해당 표에 따르면, 가군 실기/실적(일반학생전형) 레저스포츠학과와 태권도학과의 경우 전형요소 반영 비율이 다음과 같습니다:
+- 학생부교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 70%
+- 수능: 30%
+따라서, 가군 실기/실적 전형에서 실기 부분의 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9354945421218872</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+이러한 세부 전공들은 미래 융합 분야에서의 새로운 기회와 요구에 대응하기 위해 설립되었으며, 학생들이 다양한 산업 분야에서 창업과 투자, 뷰티 및 서비스 산업, 그리고 생활 문화 관련 분야에서 전문성을 갖출 수 있도록 교육을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9448822736740112</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (태권도학과 포함)
+2. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+이 두 학과에서 실기고사를 진행하므로 지원자가 해당 학과를 목표로 하면 관련된 실기 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9553383588790894</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"은 레저스포츠학과와 태권도학과를 지원할 수 있습니다.
+"나군 실기/실적(일반학생전형)"은 디자인조형학과, 체육학과를 지원할 수 있습니다.
+"다군 실기/실적(일반학생전형)"은 경기지도학과를 지원할 수 있습니다.
+따라서, 실기/실적 위주 전형을 지원하려면 해당하는 학과 중 하나에 지원해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9266141653060913</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교의 미래융합대학 인문사회 학부에 있는 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+- 스타트업 창업 투자학 (Startup Investment and Entrepreneurship)
+- 뷰티 비즈니스학 (Beauty Business Studies)
+- 라이프 생활 문화학 (Life Culture Studies)
+따라서, 동의대학교 라이프융합학부는 스타트업 창업 투자학, 뷰티 비즈니스학, 그리고 라이프 생활 문화학 세 가지 전공을 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6654309034347534</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你在询问是否可以作为特殊教育高中学生申请동의大学的一般入学考试。根据提供的信息，东义大学的普通学生招生并没有明确排除特殊教育高中的毕业生。
+但是，需要确认的是：
+1. **特殊教育高中学生的资格**：通常情况下，特殊教育高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的学生可能不符合一般入学考试的要求。这些学校的学生通常有特定的入学要求或单独的招生计划。
+2. **招生政策**：东义大学的具体招生政策可能会有所不同，建议直接访问东义大学官方网站或联系招生办公室以获取最准确的信息。
+因此，如果你是特殊教育高中的学生，最好直接咨询东义大学的招生办公室确认是否可以申请一般入学考试。你可以参考以下链接获取更多信息：
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+这样可以直接联系学校获取最准确的答案。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3710447549819946</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 및 정원 외 모집 인원을 확인해야 합니다. 제공된 정보 중에서 나군 학생부교과(농어촌학생전형) - 정원외와 나군 학생부종합(평생학습자전형/성인학습자/재직자전형)의 모집 인원을 살펴보겠습니다.
+1. **나군 학생부교과(농어촌학생전형) - 정원외**:
+   - 라이프융합학부 (신설): 11명
+   - 부동산자산경영학부: 23명
+2. **나군 학생부종합(평생학습자전형/성인학습자/재직자전형)**:
+   - 미래융합대학 인문사회 라이프융합학부 (신설): 11명
+   - 부동산자산경영학부: 7명 + 17명 + 7명 = 31명
+따라서, 나군 전형에서 가장 많이 모집하는 학과는 **부동산자산경영학부**로 보입니다. 이 학과는 정원 외 모집인원이 23명이고, 정원 내 모집인원도 총 31명으로 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **부동산자산경영학부**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.93174147605896</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你不满足申请条件，因为根据规定，特殊目的高中（如科学高中、国际高中、外语高中、体育高中和艺术高中）的毕业生不能申请农村学生专项招生。建议你查看其他适合你的招生类型或直接访问东义大学官网以获取更多信息。
+번역：당신은 특수목적 고등학교의 학생이므로 동의대학교의 농어촌학생전형으로 지원할 수 없습니다. 특수목적고등학교 출신자는 농어촌학생전형에 지원할 자격이 없기 때문입니다. 다른 적합한 전형을 확인하거나, 직접 동의대학교 웹사이트를 방문하여 더 많은 정보를 얻는 것을 고려해 보세요.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.628452479839325</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 합격자의 평균 성적에 대한 데이터가 없습니다. 
+현재 있는 정보는 다음과 같습니다:
+- 나군 학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원 표에서 소프트웨어융합학과가 포함되어 있습니다.
+- 나군 학생부종합(조기취업형계약학과전형) - 정원외 전형요소 반영비율 표에서도 소프트웨어융합학과의 평균 성적 정보가 제시되어 있지만, 이는 조기취업형 계약학과에 대한 것이며, 일반 합격자 평균 성적이 아닙니다.
+2024학년도 소프트웨어공학부 합격자의 정확한 평균 성적을 알고 싶다면, 동의대학교 입학관리 홈페이지나 관련 공지사항을 확인해보시는 것이 가장 정확할 것입니다. 해당 정보가 공개되어 있다면 그곳에서 확인하실 수 있습니다.
+추가적으로, 일반 합격자들의 성적 분포와 평균을 알고 싶으시다면, 동의대학교 입학관리 홈페이지나 입학사정관들이 작성하는 합격자 통계를 참고해보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.7523812055587769</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 최초합격자의 평균성적에 대한 데이터가 없습니다. 
+현재 있는 정보는 다음과 같습니다:
+- 수능(일반학생전형) 최종등록자 표에서 소프트웨어융합학과의 관련 정보가 있습니다.
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균/표준편차: 103.4 / 5.6
+  - 영어 등급 평균/표준편차: 3.7 / 0.8
+  - 수능 4개 영역 등급 평균/표준편차: 2.9 / 0.7
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균/표준편차: 103.5 / 6.0
+- 나군 학생부종합(조기취업형계약학과전형) - 정원외 모집단위 및 모집인원 표에서 소프트웨어융합학과의 관련 정보가 있습니다.
+  - 모집 단과대학: ICT공과대학
+  - 계열: 공학
+  - 모집단위: 소프트웨어융합학과
+  - 모집인원: 7명
+이러한 정보만으로는 특정 학과의 최초합격자 평균 성적을 정확히 알 수 없습니다. 더 구체적인 데이터가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8072377443313599</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 합격자 발표와 관련된 명확한 날짜는 찾을 수 없습니다. 일반적으로 대학의 합격자 발표 일정은 각 전형별로 다를 수 있으며, 종종 원서접수 마감일이나 해당 전형의 평균 처리 시간 후에 이루어집니다.
+만약 동의대학교 나군의 경우라면, 보통 합격자 발표는 다음과 같은 시기일 가능성이 높습니다:
+1. 2024년 3월 중순부터 4월 초까지
+이는 전형별로 약간 다를 수 있으며, 정확한 날짜는 동의대학교 입학처 웹사이트나 공지사항을 통해 확인해야 합니다.
+추가적으로, 합격자 발표와 관련된 자세한 일정은 다음과 같은 방법으로 확인할 수 있습니다:
+1. 동의대학교 입학관리팀 홈페이지를 방문하여 공지사항을 확인합니다.
+2. 전형별로 제공되는 안내서나 가이드라인을 참조합니다.
+3. 동의대학교 입학처에 직접 문의하여 자세한 정보를 얻습니다.
+추가적인 질문이나 필요한 정보가 있다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.8388500213623047</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 면접 일정을 알 수 없습니다. 일반적으로 면접은 서류심사 후에 이루어지며, 대체로 다음과 같은 절차를 따릅니다:
+1. **서류심사**: 제출된 서류들을 기반으로 합격자를 선발합니다.
+2. **면접 일정 안내**: 합격자들에게 면접 일정이 공지됩니다. 이는 대체로 서류심사 후 1-2주 정도 지나서 이루어집니다.
+3. **면접 실시**: 합격자들이 면접을 보러 가게 됩니다.
+具体的来说，面试通常会在以下步骤之后进行：
+1. **文件审核**：根据提交的文件来筛选合格者。
+2. **通知面试安排**：在文件审核后大约1-2周，会通知通过文件审核的学生面试的具体日期和时间。
+3. **参加面试**：被通知的学生需要按照指定的时间去参加面试。
+为了获取具体的面试日期，请查看学校或招生办公室的通知或公告。如果有更具体的问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.685888409614563</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준에 대한 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만 일반적으로 한의예과의 입학 조건은 다음과 같은 특징을 가질 수 있습니다:
+1. 고등학교 졸업 자격이 필요합니다.
+2. 일부 대학에서는 특정 과목(국어, 수학, 한국사 등)의 성적 기준을 요구할 수 있습니다.
+상세한 최저학력기준은 동의대학교 입학 홈페이지나 입학처에서 확인하시거나, 직접 문의하시는 것이 가장 정확합니다. 제공된 데이터에서는 한의예과에 대한 구체적인 최저학력기준 정보가 포함되어 있지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.5318723917007446</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시모집에서 명시적인 수능 최저학력 기준이 언급되어 있지 않습니다. 지원자가 모집인원에 미달한 경우에도 그 학력이 대학의 수학능력에 현저히 미달한 자는 입학을 허가하지 않을 수도 있다는 내용만 있습니다.
+만약 정시모집에서 특정 학과나 모집단위별로 수능 최저학력 기준이 설정되어 있다면, 해당 정보는 이 문서들에 포함되지 않았습니다. 대학 홈페이지의 정시모집요강이나 입학처 웹사이트를 확인해 보시거나, 직접 입학처에 문의하시는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.
+추가적으로, 수능 최저학력 기준이 설정되어 있다면 일반적으로 다음과 같은 요소들을 포함할 수 있습니다:
+- 국어, 수학, 영어 등의 특정 점수 이상
+- 탐구 과목의 성적 요구사항
+- 등급별 합격 기준
+따라서 정확한 정보를 얻기 위해서는 대학 입학처 웹사이트나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.7763131856918335</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자가 발표됩니다. 특히, 3차 이후의 충원합격자는 개별 전화 통보 없이 홈페이지를 통해 발표되며, 이 기간 동안 합격 여부를 확인하지 못한 지원자에게는 등록 포기자로 간주될 수 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.8627059459686279</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00와 2024년 2월 16일(금) 19:00부터 개별 전화 통보를 통해 추가합격자 발표가 이루어집니다.
+추가합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+- **3차 이후 충원 합격자 발표 (개별 전화 통보)**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이러한 일정에 따라 합격 여부를 확인하고 지정된 기간 내에 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9642857909202576</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 정시 모집에서 추가모집이 이루어질 수 있습니다. 특히, 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.
+추가모집의 예시로는:
+1. 2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 합격자를 선발합니다.
+2. 수시모집 실기/실적(경기실적우수자전형), 학생부교과(농어촌학생전형), 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)의 결원인원은 정시&lt;나&gt;군으로 이월하여 선발합니다.
+따라서, 추가모집 가능성은 있습니다. 하지만 확실한 정보는 해당 대학의 공식 홈페이지나 입학처에서 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9397251605987549</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 평생교육을 받은 학습자를 대상으로 하는 입학 전형입니다. 주요 내용은 다음과 같습니다:
+1. 모집단위 및 인원:
+   - 미래융합대학 인문사회 학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 11명
+   - 같은 학부 (부동산투자학, 부동산개발경영학): 23명
+2. 지원자격:
+   - 고등학교 졸업(예정)자 또는 법령에 따른 동등한 학력 소지자
+   - 만 18세 이상
+3. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자가 제출하지 않아도 됨)
+   - 검정고시 합격증명서 및 성적증명서 (검정고시 출신자만 필요)
+   - 외국고교 졸업(예정)자: 공증받은 졸업증명서, 성적증명서 등
+4. 서류평가:
+   - 공동체역량: 최대 140점
+   - 학업역량: 최대 280점
+   - 전공적합성: 최대 280점 (각 영역별 최고점 700점, 최저점 490점)
+5. 면접평가:
+   - 개별면접 형태로 진행
+   - 평균 10분 이내
+   - 학업역량과 전공적합성에 중점을 둔 질문
+6. 동점자 처리기준:
+   - 면접 성적이 우선
+   - 다음으로 서류평가 공동체역량, 전공적합성 순
+7. 지원기간 및 장소:
+   - 제출 기간: 2024년 1월 3일 ~ 12일 (17시까지 도착분)
+   - 제출 장소: 동의대학교 입학관리팀 (우편번호 47340, 부산광역시 부산진구 엄광로 176)
+8. 참고사항:
+   - 서류제출 여부 확인은 홈페이지에서 가능
+   - 미제출 또는 미확인 시 불이익 발생
+평생학습자전형은 평생교육을 받은 학습자의 다양한 경험과 능력을 종합적으로 평가하여 입학 기회를 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.8780272006988525</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+2. 만 30세 이상인 자로, 이는 1994년 2월 28일 이전 출생자입니다.
+이러한 지원 자격을 갖춘 개인은 평생학습자전형에 지원할 수 있습니다. 추가적으로, 검정고시 합격자나 외국 고등학교 졸업자 등도 해당 조건에 포함될 수 있으며, 각각의 경우에 따라 필요한 서류가 다릅니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.6264450550079346</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 3일(수)부터 1월 12일(금)까지 17:00까지 도착분에 한하여, 실기고사를 제출할 장소는 다음과 같습니다:
+(우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+제출서류 상황을 확인하려면 반드시 본인의 서류제출 여부를 확인해야 하며, 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+더 궁금하신 사항이 있으시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나, 동의대학교 입학관리팀에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7954921126365662</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 이루어집니다:
+1. **제자리 멀리뛰기**:
+   - 점수: 240점 (24%)
+2. **메디신볼 던지기**:
+   - 남학생: 243점 (23%)
+   - 여학생: 243점 (23%)
+3. **Z-런**:
+   - 남학생: 230점 (23%)
+   - 여학생: 230점 (23%)
+실기고사는 각각의 종목에 따라 점수가 배정되며, 운동복 및 운동화를 착용해야 합니다. 특수화는 불가하며 신발바닥에 이물질이 가칠 수 없습니다.
+추가로 주의할 사항은:
+- 실기 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+- 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+따라서 체육학과의 지원자는 이 세 가지 실기종목을 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4694810509681702</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 부터 2024년 2월 20일(화)까지 3차 이후 충원합격자를 발표하는데, 이 과정에서 전화 통신이 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주될 수 있습니다. 따라서 이 기간 동안 전화를 받지 못하는 일이 없도록 주의해야 합니다.
+따라서, 3차 이후 충원합격자 발표 시에는 대학 측에서 전화 통보를 할 것으로 보이지만, 이를 확실하게 확인하려면 학교 입학관리 홈페이지나 연락처를 통해 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.6879448294639587</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터에서 직접 확인할 수 없습니다. 제공된 정보는 주로 2024학년도와 관련된 내용을 다루고 있습니다. 
+특히, 2024학년도 모집요강과 일정 등이 상세하게 설명되어 있지만, 이전 연도의 결과나 세부적인 통계는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과 수시모집 결과를 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학처 웹사이트를 방문하여 과거 자료를 확인해보세요.
+2. 동의대학교 입학상담 센터에 문의하시거나 직접 연락주시면 도움을 받으실 수 있습니다.
+3. 관련 포럼이나 커뮤니티에서 정보를 찾아보시는 것도 좋은 방법입니다.
+이러한 방법들을 통해 2023학년도 경찰행정학과 수시모집 결과에 대한 자세한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.7660825252532959</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시모집에서 수능을 응시하지 않고도 특정 학과를 지원할 수 있는 직접적인 방법은 확인되지 않았습니다. 그러나 일부 특별전형(예: 나군 실기/실적, 나군 학생부교과 등)에서는 수능 없이 지원할 수 있는 경우가 있습니다.
+특히, 다음과 같은 전형을 참조해볼 수 있습니다:
+1. **나군 실기/실적 (경기실적우수자전형)**: 이 전형은 실기 또는 실적을 기반으로 평가하므로 수능 없이 지원할 수 있습니다.
+2. **나군 학생부교과 (농어촌학생전형, 특성화고동일계전형 등)**: 이 전형에서는 주로 학생부와 실적 등을 종합적으로 평가하므로 수능을 응시하지 않아도 지원할 수 있습니다.
+따라서 정시모집에서 수능을 응시하지 않고 지원하고자 한다면, 위의 특별전형을 참조해보는 것이 좋습니다. 그러나 일반적인 정시모집에서는 수능 점수를 필수적으로 반영하므로, 수능을 응시하는 것이 유리할 수 있습니다.
+더 자세한 정보가 필요하시다면, 대학 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.8270738124847412</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024년의 경우, 일반적으로 고등학교 졸업 후 10년이 경과하면 정시 모집에 지원하기 어려울 수 있습니다. 하지만 특정 전형(예: 평생학습자전형, 성인학습자전형 등)에서는 고등학교 졸업 이후의 경력이나 학력을 인정하여 지원할 수 있는 경우가 있습니다.
+주어진 정보를 바탕으로 다음과 같은 점을 확인해보세요:
+1. **평생학습자전형**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로, 만 30세 이상인 자를 대상으로 합니다.
+2. **성인학습자전형**: 이 전형도 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+따라서, 당신의 경우 다음과 같은 절차를 따르면 가능할 수 있습니다:
+1. **지원 자격 확인**: 해당 전형의 지원 자격 조건을 철저히 확인하세요.
+2. **필요한 서류 준비**: 필요한 서류를 준비하고 제출해야 합니다.
+만약 위의 전형 중 하나에 해당하지 않는다면, 정시 모집에서는 일반적으로 고등학교 졸업 후 10년이 경과하면 지원하기 어렵습니다. 이 경우에는 재교육을 받거나 특별한 전형을 찾아보는 것이 좋을 수 있습니다.
+더 자세한 정보를 얻기 위해서는 대학의 입학처 웹사이트나 직접 문의하는 것이 가장 정확할 것입니다. "https://ipsi.deu.ac.kr/main.do" 링크를 참고하여 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.692352831363678</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학 안내 홈페이지에서 공고됩니다.
+2. **원서접수**:
+   - 인터넷 접수: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각각 18시까지
+3. **서류 제출 (필요한 경우)**:
+   - 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 17시까지 도착분에 한함
+   - 서류 제출 장소: (우편번호: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. **실기고사**:
+   - **가군**: 레저스포츠학과와 태권도학과는 2024년 1월 16일 (화)
+   - **나군**: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+   - 충원 합격자 발표 및 등록이 완료되지 않은 경우, 3차 이후 개별 전화 통보로 진행되며, 이 기간은 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+6. **환불 신청**:
+   - 2024년 2월 14일 (수) ~ 2024년 2월 20일 (화) 12시까지 온라인으로 신청 가능합니다.
+이 일정은 일반적인 일정이며, 일부 모집단위나 전형에 따라 약간의 차이가 있을 수 있으므로 공식 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.8859652280807495</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)
+   - 입학안내 홈페이지에서 공고
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 접속 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 서류 제출 대상은 학교 지정 홈페이지에서 확인 가능
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)
+   - 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)
+   - 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 확인
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+   - 최초 합격자 등록: 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+     - 지정은행 내 은행마감시간 내에 납부해야 함
+7. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일(수) 09:00
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+   - 1차 충원 합격자 등록: 2024년 2월 14일(수) 09:00 ~ 16:00
+   - 2차 충원 합격자 발표: 2024년 2월 15일(목) 09:00
+     - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+   - 2차 충원 합격자 등록: 2024년 2월 15일(목) 09:00 ~ 16:00
+8. **3차 이후 충원 합격자 발표 및 등록**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 홈페이지에서 개별 조회 가능, 고지서는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+이 일정은 최초 합격자와 충원 합격자를 대상으로 진행되며, 모든 지원자는 해당 일정에 맞춰 합격 여부를 확인하고 등록금을 납부해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9742552042007446</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **한의예과**
+   - 수학(미적분/기하) 응시자가 아닌 경우, 수학(확률과통계) 응시자는 해당하는 전형에 지원 가능합니다.
+2. **나군 학생부종합전형 (성인학습자(정원외)전형)**
+   - 이 전형은 수능 미응시자도 지원이 가능합니다.
+위와 같이, 일부 전형에서는 수능 미응시자도 지원이 가능하므로 해당 정보를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6269632577896118</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년 전형일정을 보면, 충원 합격자는 다음과 같이 발표되었습니다:
+- 1차 충원 합격자 발표: 2024. 02. 14.(수) 09:00
+- 2차 충원 합격자 발표: 2024. 02. 15.(목) 09:00
+따라서 전년도에 전자공학과의 충원 합격은 최대 2차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5879576802253723</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 만약 동의대학교 입학처의 연락처를 알고 싶다면, 공식 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 방문하여 연락처 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.845044732093811</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자가 전화 통보를 받았지만, 전화 통화가 되지 않은 경우 해당 학생은 등록 포기자로 간주됩니다. 따라서 이 경우에는 학생이 우리대학에 등록 의사를 전달하지 않더라도 학교 측에서는 이를 등록포기로 처리하게 됩니다.
+따라서, 3차 이후 충원합격자 발표 기간(2024년 2월 15일(목) ~ 2024년 2월 20일(화))에 전화 통화를 받지 못하는 일이 없도록 신중하게 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9499659538269043</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형으로 지원시 제출해야 할 서류가 다릅니다.
+### 6년 과정
+- **지원자 본인의 가족관계증명서** (1부)
+- **지원자 본인, 부모의 주민등록초본 각 1부** (총 3부)
+- **중학교 학교생활기록부** (1부) - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+- **고등학교 학교생활기록부 1부** (학생부 온라인 제공 비대상교 및 미동의자)
+  - 부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+  - 부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가로 제출
+### 12년 과정
+- **지원자 본인의 주민등록초본** (1부)
+- **초등학교 학교생활기록부** (1부)
+- **중학교 학교생활기록부** (1부)
+- **고등학교 학교생활기록부 1부** (학생부 온라인 제공 비대상교 및 미동의자)
+  - 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+이러한 서류들은 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다. 또한 2024년 1월 1일 이후에 발급된 서류만 제출 가능합니다.
+제출 장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀이며, 제출기간은 2024년 1월 3일(수)부터 1월 12일(금)까지 도착분에 한해 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.9328820705413818</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원시 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로 주의할 점은:
+- 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출이 가능하다는 것입니다.
+따라서, 지원자의 부모가 농어촌 지역에 거주하지 않았다면 12년 과정의 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9429154396057129</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到东义大学在正选招生（정시모집）中的低收入机会均等类型招生计划是否会进行选拔。因此，根据给定的信息，无法确定是否会有针对低收入家庭的特殊招生计划。
+如果您需要了解具体的招生政策和是否有针对低收入家庭的学生的特别计划，建议直接访问东义大学的官方网站或联系学校的招生办公室以获取最准确的信息。通常这类信息会在学校官网的招生页面或者专门的招生简章中详细说明。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.4332343339920044</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2024년 수능 성적 산출 방식에 따르면, 탐구 영역의 표준점수는 탐구 과목 두 과목의 표준점수를 합산한 점수를 반영합니다. 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리한다는 내용이 포함되어 있습니다.
+따라서, 사탐 2과목 중 하나가 2등급이고 다른 과목이 3등급인 경우, 평균은 (2 + 3) / 2 = 2.5 등급이 됩니다. 하지만 이때 소수점 셋째 자리에서 절사 처리를 하므로, 최종적으로는 2등급으로 반영됩니다.
+즉, 2.5등급은 2등급으로 절사되어 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.6462841629981995</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 동일대학의 정시 모집에서 &lt;나&gt;군 충원 합격자는 다음과 같은 단계로 발표됩니다:
+1. **1차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 14일(수) 09:00
+   - 방법: 홈페이지에서 개별 조회
+2. **2차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일(목) 09:00
+   - 방법: 홈페이지에서 개별 조회
+3. **3차 이후 충원 합격자 발표 (개별 전화 통보)**:
+   - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 방법: 홈페이지에서 개별 조회
+따라서, 정시 충원 합격자는 최대 3차까지 발표가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.8654494881629944</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024년의 정시 모집에서 e비즈니스학과는 나군(일반학생전형)에 해당합니다. 나군의 경우 수능 성적 반영 방식은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급 점수 + 탐구 표준점수
+e비즈니스학과는 공과대학 모집단위에 속하므로, 수능 4개 영역(국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급 점수를 합산한 점수 ÷ 2로 성적을 산출합니다.
+주어진 정보는 국어와 수학의 표준점수만 주어져 있습니다. 영어 등급과 탐구 영역의 표준점수가 필요합니다. 
+영어 등급에 따른 점수를 확인할 수 있는 표가 제공되어 있습니다:
+| 등급 | 점수 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+만약 영어 등급이 4등급이라면, 영어 점수는 115점입니다.
+예를 들어:
+- 국어 표준점수: 104
+- 수학 표준점수: 108 (미적분)
+- 영어 등급 점수: 115 (4등급)
+- 탐구 표준점수: 가정해보자 60
+이 경우, 성적 합산은:
+(104 + 108) / 2 + 115 + 60 = 106 + 115 + 60 = 281 점
+따라서 e비즈니스학과의 모집인원과 지원자 수, 그리고 경쟁률 등을 고려하여 최종적으로 추가 합격 가능 여부를 판단해야 합니다. 정확한 결과는 입학처에서 제공하는 정보와 실제 모집 인원 및 지원 인원을 확인해야 합니다.
+추가로 탐구 영역의 성적도 중요하므로, 해당 과목의 표준점수도 함께 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.726549506187439</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 모집요강을 고려해보겠습니다.
+1. **모집 인원**: e비즈니스학과는 30명을 모집합니다.
+2. **전형 방식**: 이 학과는 정시모집 &lt;나&gt;군에 속하며, 전형방법은 학생부교과(학생부종합)입니다.
+e비즈니스학과의 최초합격 기준을 확인하기 위해서는 2023년도의 입학성적 분석 자료를 참조해야 합니다. 하지만 일반적으로 e비즈니스학과의 합격 기준은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수**: 평균 5.0 이상, 표준 편차는 보통 0.3 내외입니다.
+- **영어 등급**: 평균 B+ (등급 4.7) 이상
+- **수능 4개 영역 등급**: 평균 4.8 이상
+이러한 기준을 고려하면, 정시 등급 5.3은 상당히 높은 점수로, 이는 e비즈니스학과의 합격 가능성을 매우 높게 만듭니다.
+**결론**: 정시 등급 5.3은 e비즈니스학과에 최초합격할 확률이 상당히 높습니다. 하지만 최종 결정은 입학성적 분석 자료와 모집인원, 지원자 수 등을 고려해야 합니다.
+만약 정확한 입학성적 분석 자료가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7189439535140991</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有关于eBiznesse学专业的具体录取标准和分数线。因此，仅凭“预估第38名”这个信息无法判断是否有可能被该专业预录取。
+为了更准确地评估您是否有希望被eBiznesse学专业预录取，建议参考以下几点：
+1. 查看该专业的历年录取分数线。
+2. 了解该专业的具体录取规则和标准。
+3. 考虑您的成绩在所有申请者中的排名情况。
+4. 如果有可能的话，咨询学校的招生办公室获取更准确的信息。
+如果您能提供更多关于您个人成绩的具体信息以及eBiznesse学专业的要求，我可以帮助进一步分析。建议直接访问学校官网或联系招生办公室以获得最准确的答案。如果需要，可以参考以下链接获取更多信息：https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.4909358620643616</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 GPA는 동의대학교 간호학과의 경쟁률과 모집인원 등을 고려할 때, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+간호학과의 경우 다음과 같은 특징이 있습니다:
+1. **모집 인원**: 110명
+2. **지원 인원**: 상세한 지원자 수는 제공되지 않았지만, 간호학과는 일반적으로 많은 지원자를 받습니다.
+3. **경쟁률**: 매우 높은 경쟁률을 보입니다.
+간호학과의 합격 기준 GPA는 대략 4.0 이상으로 알려져 있습니다. 따라서 3.44이라는 점수는 상당히 낮은 수치로, 일반적으로 합격하기 어렵습니다.
+하지만 최종 합격 여부는 면접 성적, 추천서, 자기소개서 등 다양한 요인에 따라 결정되므로 완전히 배제할 수는 없습니다. 그러나 합격 가능성은 매우 낮다고 판단해야 합니다.
+추가적으로, 동의대학교 간호학과는 간호교육 인증을 받았기 때문에, 이와 관련된 자격증 취득이나 추가적인 준비를 하는 것이 도움이 될 수 있습니다.
+만약 합격 가능성이 높지 않다고 판단된다면, 다른 대학이나 전공을 고려해 보는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.6904768943786621</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 전형요소 반영비율은 서류(학생부) 70% + 면접 30%입니다. 또한, 서류평가 영역에서는 공동체역량, 학업역량, 전공적합성 등을 평가합니다.
+정시 성적이 2.52라는 점을 고려할 때, 이는 수능 성적 중에서 가장 낮은 등급으로, 간호학과의 모집요강에 따르면 학생부 교과성적 반영방법은 전 모집단위(한의예과 제외) 12과목 중 석차등급 상위 8과목을 반영합니다. 이는 국어, 수학, 영어교과를 포함하여 최소 4과목 이상이 좋은 성적을 보여야 합니다.
+정시 성적이 2.52라는 점은 수능에서 중간 정도의 성적을 나타내지만, 학생부 교과성적 등 다른 요인들을 고려해야 합니다. 간호학과는 실무 능력과 전공 적합성을 중요하게 평가하므로, 학생부에서 관련 활동이나 경험, 면접 성적이 높다면 최종 합격 가능성은 있습니다.
+하지만 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 요소들을 종합적으로 고려해야 합니다:
+1. **학생부 교과성적**: 국어, 수학, 영어 등 주요 과목의 성적이 높아야 합니다.
+2. **면접 성적**: 면접에서 좋은 평가를 받는 것이 중요합니다.
+3. **전공 적합성**: 간호 관련 활동이나 경험을 잘 보여줄 수 있어야 합니다.
+따라서, 정시 성적이 2.52라는 점만으로는 확실한 합격 여부를 판단하기 어렵습니다. 지원자 본인의 전반적인 성적과 활동 경력을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.6908966302871704</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 평균 점수가 간호학과에 충분한지 확실하지는 않습니다. 하지만 간호학과의 경우, 수능 성적 외에도 지원자의 전반적인 자질과 적합성을 종합적으로 평가하기 때문에 단순히 3.7이라는 점수만으로 판단할 수 없습니다.
+간호학과의 입학 요건을 살펴보면:
+1. **수능 성적**: 대체로 높은 점수가 요구되지만, 정확한 점수는 학교마다 다릅니다.
+2. **학생부 평가**: 학업 역량, 인성 등이 중요합니다.
+3. **면접 및 실기 시험**: 일부 학과에서는 면접이나 실기 시험을 실시할 수 있습니다.
+따라서 3.7의 성적만으로는 확실한 합격을 보장받기는 어렵습니다. 하지만 다음과 같은 방법들을 통해 입학 가능성을 높일 수 있습니다:
+1. **학생부를 강화**: 진로 관련 활동, 자원봉사 등 다양한 경험을 쌓아 학생부를 풍성하게 만듭니다.
+2. **면접 준비**: 면접 시험을 대비하여 자신의 장점과 간호사로서의 적합성을 잘 표현할 수 있도록 합니다.
+3. **추천서 작성**: 선생님이나 지도교사를 통해 추천서를 받아 입학심사에 도움이 되도록 합니다.
+결론적으로, 단순히 3.7이라는 점수만으로는 확실한 합격을 보장받기는 어렵지만, 전반적인 자질과 적합성을 잘 준비한다면 충분히 합격할 수 있는 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6957954168319702</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 정확한 합격 기준 점수는 공개되지 않았습니다. 하지만 일반적으로 대학별 합격 기준은 다음과 같은 요소들에 따라 결정됩니다:
+1. **수능 성적**: 수능 국어, 수학(문/이), 영어 등 주요 과목의 성적이 중요합니다.
+2. **등급 변환 점수**: 수능 성적을 변환점수로 환산하여 평균 점수를 계산합니다.
+3. **경쟁률**: 지원자의 수와 모집인원 간의 비율이 합격 기준에 영향을 미칩니다.
+2024년 동의대학교 간호학과의 정시 모집에서 국어 + 수학 + 탐구(2개)의 표준 변환 점수 평균은 2.58 정도로 보입니다. 이는 합격 가능성을 높이지만, 최종 합격 여부는 경쟁률과 지원자의 전체 성적 분포에 따라 결정됩니다.
+따라서, 2.58의 표준 변환 점수만으로는 확실한 합격을 보장할 수 없습니다. 정확한 합격 가능성을 확인하려면 동의대학교 입학처 홈페이지나 모집요강을 참조하거나, 입학처에 직접 문의하는 것이 좋습니다.
+추가적으로, 간호학과는 일반적으로 높은 경쟁률을 보이므로, 추가적인 지원 자료와 면접 성적 등도 고려될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.6682667136192322</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 답변이 어렵습니다. 게임공학과의 경우 모집인원은 40명이며, 예비후보 순위에 따라 충원될 수 있습니다.
+예비번호 7번이라는 점에서 다음과 같은 사항을 고려해볼 수 있습니다:
+1. 현재까지의 경쟁률: 게임공학과는 많은 지원자가 있을 가능성이 높습니다.
+2. 예비후보 순위: 7번이 상대적으로 낮은 번호라는 것은 좋은 신호입니다.
+3. 동점자 처리 기준: 동점자가 발생할 경우, 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 등급의 합계점수가 우선적으로 고려됩니다.
+하지만 이는 확실한 보장이 아닙니다. 최종 결정은 입학관리위원회에서 내립니다. 
+추가적인 정보를 얻기 위해서는:
+- 동일 모집단위의 경쟁률을 확인해보세요.
+- 입학처에 직접 문의하여 예비후보 순위와 관련된 자세한 정보를 요청하세요.
+결론적으로, 현재 상황에서 확실하게 붙을 수 있다고 말하기는 어렵습니다. 최선을 다하고 추가적인 정보 수집이 필요할 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.654966413974762</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 수능 등급으로 변환하면 대략 3등급 정도 됩니다. 동의대학교 게임공학과는 일반적으로 수능 성적에 대한 가중치가 높은 전형을 채택하고 있습니다.
+다군(일반학생전형)의 경우, 게임공학과와 관련된 모집단위에서는 수능 4개 영역 중 상위 3개 영역의 표준점수 및 등급 점수를 반영합니다. 따라서 국어, 수학, 영어, 탐구 중에서 가장 높은 3개 영역의 점수를 합산하여 평균을 내는 방식으로 성적이 산출됩니다.
+4.16이라는 등급이 실제 수능 점수로 변환되면 대략 다음과 같은 점수일 것입니다:
+- 국어: 90점
+- 수학: 85점
+- 영어: 72점 (3등급)
+- 탐구: 70점
+상위 3개 영역을 고려하면, 가장 높은 점수가 90점인 국어와 85점인 수학, 그리고 72점인 영어를 선택할 것입니다. 이 경우 평균 점수는 다음과 같습니다:
+(90 + 85 + 72) / 3 = 81.67
+이 점수가 동의대학교 게임공학과의 합격 기준을 충족하는지 확인해야 합니다. 하지만, 이 점수만으로 정확한 추가 합격 가능 횟수를 예측하기는 어렵습니다.
+정시 모집에서 추가 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. 동의대학교 게임공학과의 모집 인원
+2. 지원자의 경쟁률
+3. 다른 지원자들의 성적 분포
+따라서, 정확한 추가 합격 가능 횟수를 예측하기 위해서는 동의대학교 게임공학과의 최종 모집 인원과 지원자의 전체 성적 분포 등을 고려해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하여 가장 정확한 정보를 얻으시는 것이 좋습니다. 해당 사이트에서는 매년 변경되는 합격 기준 점수와 모집 인원 등 중요한 정보를 확인할 수 있습니다.
+https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.6911117434501648</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 정시 모집요강을 따르면 다음과 같은 점수 기준이 있습니다:
+1. **정시 일반학생전형**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 3.75 이상
+따라서, 정시 성적 3.75는 경영정보학과의 최초등록자로 충분히 가능합니다.
+하지만, 최종 등록 여부는 여러 요인에 따라 결정되므로, 다음과 같은 점들을 확인해보세요:
+1. **모집 인원**: 모집 인원이 얼마나 되는지 확인해야 합니다.
+2. **경쟁률**: 지원자의 수와 모집 인원의 비율을 확인하여 경쟁률을 파악합니다.
+3. **기타 평가 요소**: 학업역량, 전공적합성 등 서류평가 항목에서 좋은 점수를 받았는지 확인해야 합니다.
+따라서, 3.75의 성적이 경영정보학과 최초등록자로 가능하다고 볼 수 있지만, 최종 결정은 모집 인원 및 기타 평가 요소에 따라 달라질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.7186956405639648</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 모집인원, 지원 인원 등 자세한 상황을 알 수 없습니다. 하지만 일반적으로 정시모집에서 합격 가능성은 다음과 같은 요소들에 따라 결정됩니다:
+1. **경쟁률**: 각 모집단위별로 다른 경쟁률이 있습니다.
+2. **성적 평균 및 분포**: 지원자의 성적이 전체 지원자 중 어느 위치에 있는지 중요합니다.
+3. **모집인원과 지원 인원**: 이들 간의 비율도 합격 가능성에 영향을 미칩니다.
+4.2라는 점수만으로는 확정할 수 없습니다. 경영정보학과의 모집인원, 지원 인원, 그리고 해당 과의 성적 평균 등을 확인해야 합니다. 
+**추천 사항:**
+1. **입학 홈페이지를 참조하세요**: 동의대학교 입학 홈페이지에서 해당 학과의 최초합격자 및 최종등록자의 정보를 확인해보세요.
+2. **문의하기**: 직접 동의대학교 입학관리팀에 문의하여 가장 정확한 정보를 얻으시는 것이 좋습니다.
+만약 경영정보학과의 모집인원이 적고 지원 인원이 많다면, 4.2라는 점수로 최초등록자로 합격하기는 어렵다고 볼 수 있습니다. 하지만 반대로 모집인원이 많거나 지원 인원이 적다면 가능성이 높아질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.6325427889823914</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 정시 모집요강을 바탕으로 답변 드리겠습니다.
+1. **모집인원 및 지원 인원**: 먼저, 경영정보학과의 정시 모집인원과 지원 인원에 대한 정보가 필요합니다. 이 정보는 합격 가능성에 큰 영향을 미칩니다.
+2. **경쟁률**: 경쟁률이 매우 높다면, 5.33이라는 성적만으로는 합격하기 어렵다고 볼 수 있습니다. 하지만 모집인원과 지원 인원의 비율이 낮다면 가능성이 있을 수 있습니다.
+3. **성적 반영방법**: 동의대학교의 경우, 정시 모집에서는 국어, 수학, 영어, 탐구 과목을 각 25%씩 반영합니다. 따라서 성적이 높은 탐구 과목에서 좋은 점수를 받는 것이 중요합니다.
+4. **기타 요인**: 학생부 교과성적, 면접 등 기타 평가 항목도 고려됩니다. 특히 경영정보학과는 이론적인 지식뿐만 아니라 실무 능력도 중요하게 평가받습니다.
+5. **최종 결정**: 최종적으로는 모집인원과 지원 인원의 비율, 성적 분포 등 여러 요소를 종합적으로 판단해야 합니다. 따라서 정확한 답변을 위해서는 경영정보학과의 정시 모집요강 및 최근 입학사정관제 결과 등을 확인해보시는 것이 좋습니다.
+추가 정보:
+- **모집인원**: 경영정보학과의 정시 모집인원은 공개되어야 합니다.
+- **지원 인원**: 지원 인원도 중요하므로, 동의대학교 입학처 홈페이지를 통해 확인할 수 있습니다.
+- **성적 분포**: 최근 몇 년간의 합격者的，你的问题似乎被截断了。你是想询问关于同济大学经管信息学部（假设这是你提到的“ 경영정보학과”）在普通招生中的录取可能性吗？如果是这样，请提供更多的具体信息，例如你的详细成绩分布、特别是你在数学和专业相关科目上的表现如何，以及该专业的往年录取分数线等。这些因素将有助于更准确地评估你的录取机会。
+如果你能提供更多细节，我会尽力给出一个更具体的答案。你可以参考以下步骤来获取更多信息：
+1. 访问同济大学的官方网站或招生办公室。
+2. 查看经管信息学部的具体招生要求和往年录取分数线。
+3. 了解你所在省份的考生平均分数范围。
+如果有其他具体问题，欢迎继续提问！</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7025808691978455</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>3.33이라는 점수는 수능 성적을 의미하는 것으로 보입니다. 하지만 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 지원하려면 더 자세한 정보가 필요합니다.
+1. **성적 반영 방식**: 수능 성적이 3.33이라면, 이는 표준점수로 보입니다. 일반적으로 바이오응용공학부의 경우 수능 성적을 매우 중요하게 고려하므로, 3.33이라는 점수는 상대적으로 낮은 점수일 가능성이 있습니다.
+2. **모집인원과 지원자 수**: 각 모집단위별로 모집인원이 다르고, 지원자의 수도 영향을 줄 수 있습니다. 예를 들어, 특정 모집단위가 많은 지원자를 받았다면 경쟁률은 높아질 것입니다.
+3. **기타 평가 요소**: 일부 전형에서는 학생부 교과성적, 면접 등 다른 평가 요소도 고려됩니다. 따라서 수능 성적이 3.33이라면, 학생부 교과성적이나 기타 평가 요소가 높다면 더 좋은 입학 가능성을 가질 수 있습니다.
+4. **최종 결정**: 최종적으로는 입학사정관이 전반적인 자격을 판단하므로, 지원자의 전체 성적과 경쟁률, 모집인원 등을 고려하여 최종 결정됩니다.
+따라서, 3.33이라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 더 자세한 정보를 제공해주시면 좀 더 정확한 답변을 드릴 수 있습니다. 예를 들어, 지원하고자 하는 모집단위와 해당 모집단위의 경쟁률 등을 알려주시면 도움이 될 것입니다.
+추가적으로, 동의대학교 입학 홈페이지나 입학처에 문의하시거나, 전형요강을 확인하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.7653666734695435</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률을 고려하면 어려울 가능성이 높습니다.
+방사선학과는 보통 국어, 수학, 영어 등 주요 과목에서 높은 성적을 요구합니다. 4.4의 등급으로는 일부 학교에서는 충분히 경쟁력을 갖추지만, 대다수의 대학에서는 더 높은 등급이 필요할 것입니다.
+다음은 고려해볼 수 있는 사항들입니다:
+1. **경쟁률**: 방사선학과의 경쟁률을 확인하세요. 경쟁률이 높다면 4.4의 등급으로는 낮은 확률로 합격할 수 있습니다.
+2. **대학별 요구사항**: 각 대학별로 방사선학과에 대한 특별한 요구사항이나 추가적인 평가 요소가 있는지 확인하세요. 예를 들어, 면접이나 실기 시험 등이 있을 수 있습니다.
+3. **추천서나 자기소개서**: 일부 학교에서는 추천서나 자기소개서 등을 통해 지원자의 적합성을 판단하기도 합니다. 이 부분을 잘 준비하면 도움이 될 수 있습니다.
+결론적으로, 4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 대학별 요구사항을 고려하여 결정하시길 권장드립니다. 추가적인 정보나 조언이 필요하시면 학교 입학처 또는 관련 컨설팅 서비스를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6566930413246155</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 정시 모집에서 2.66이라는 수능 점수는 상대적으로 낮은 점수입니다. 방사선학과는 보통 중등이상의 수학적 능력과 과학적 이해가 필요하며, 이에 따라 수능 과목별로 높은 점수가 요구되는 경향이 있습니다.
+2.66이라는 점수는:
+1. **수학 및 과학 성적이 중요**: 방사선학과에서는 수학과 과학의 지식이 필수적입니다. 이 두 과목에서 좋은 성적을 받는 것이 중요합니다.
+2. **경쟁률 고려**: 동의대학교 방사선학과의 경쟁률은 높아서, 2.66이라는 점수로 합격하기 위해서는 다른 요소들(학생부, 면접 등)에서 우수한 성적을 보여줘야 할 가능성이 큽니다.
+3. **추천 및 특기사항**: 추천서나 특기사항 등을 잘 준비하여 지원자의 전반적인 능력을 강조하는 것이 중요합니다.
+4. **면접 준비**: 면접에서도 방사선학과에 대한 열정과 적합성을 잘 보여줘야 합니다.
+결론적으로, 2.66이라는 점수로는 합격이 어렵다고 할 수 있지만, 다른 요소들을 잘 활용한다면 가능성은 여전히 있습니다. 그러나 이 점수로만 합격을 기대하기보다는 추가적인 준비와 노력이 필요할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7133861780166626</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 낮습니다. 이유는 다음과 같습니다:
+1. **경찰행정학과의 입학정원 및 평균성적**: 경찰행정학과의 경우 일반적으로 높은 성적이 요구됩니다. 특히 농어촌 전형에서도 높은 학력기준을 유지합니다.
+2. **농어촌 전형의 특징**: 농어촌 전형은 주로 농어촌 지역 출신자나 관련 조건을 만족하는 지원자를 대상으로 합니다. 성적 기준이 일반적인 정시 모집보다는 낮지만, 여전히 합격하기 위해서는 꽤 높은 성적이 필요합니다.
+3. **성적 평균**: 대부분의 대학에서 농어촌 전형에서도 4.0 이상의 성적을 요구하는 경우가 많습니다. 3.66은 이 기준에 미치지 못하고 있습니다.
+4. **모집인원 및 경쟁률**: 경찰행정학과의 모집인원이 적고, 지원자가 많은 경우에도 높은 학력기준을 유지하기 때문에 성적이 낮다면 합격 가능성은 매우 낮습니다.
+따라서 3.66이라는 성적로는 경찰행정학과 농어촌 전형에 합격하기 어렵다고 판단됩니다. 다른 전공이나 일반학생전형으로 지원하는 것을 고려해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.7283706665039062</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 예비 순위에서 합격할 확률은 매우 낮습니다. 하지만 모든 것이 불확실하기 때문에, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 모집 인원과 지원자의 수: 현재 예비 순위에 있는 지원자들의 수와 모집 인원의 차이가 얼마나 되는지 확인해야 합니다.
+2. 학생 성적: 자신의 성적이 평균 이상인지, 특히 수능 점수와 교과 성적이 높은지 확인하세요.
+3. 동점자 처리 기준: 일부 전형에서는 동점자가 발생할 경우 추가적인 요인들이 고려될 수 있습니다.
+4. 학교 정책: 각 대학은 예비 지원자의 재평가를 통해 몇 명을 추가로 선발할 수도 있습니다.
+5. 기타 요인: 특기사항, 면접 성적 등이 있을 수 있습니다.
+그럼에도 불구하고, 25번의 예비 순위에서 합격 확률은 매우 낮습니다. 하지만 최선을 다해 준비하고, 가능한 모든 정보를 수집하여 자신의 위치를 개선하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.8124179840087891</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부 정시모집에 대한 정확한 합격 예상 점수를 말씀드리기는 어렵습니다. 하지만 일반적으로 다음과 같은 요소들을 고려할 수 있습니다:
+1. **최근 입학정원 및 경쟁률**: 2023년의 경우 법경찰행정학부는 모집인원이 제한적이었고, 경쟁률은 높았습니다.
+2. **성적 평균**: 
+   - **국어 + 수학 + 탐구(2개) 표준점수 합**: 800점 이상을 받으면 안정적인 입학 가능성이 있습니다.
+   - **영어 등급**: B등급 이상이 필요할 것으로 예상됩니다.
+3. **학생부 평가**: 
+   - **공동체역량**: 협업능력, 학교폭력 여부 등을 고려해야 합니다.
+   - **학업역량**: 주요 과목의 성적과 학업태도를 반영합니다.
+   - **전공적합성**: 지원자의 진로와 전공 간의 적합성을 평가합니다.
+4. **추천서 및 면접**: 
+   - 추천서와 면접에서도 좋은 평가를 받는 것이 중요합니다.
+5. **출결 등 학업태도**: 출석률과 학업태도도 중요한 요소입니다.
+따라서, 법경찰행정학부에 정시로 안정적으로 들어갈 수 있는 성적은 **국어 + 수학 + 탐구(2개) 표준점수 합 800점 이상** 및 **영어 B등급 이상**, 그리고 좋은 학생부 평가와 추천서, 면접 등이 필요할 것으로 예상됩니다.
+정확한 점수는 입학사정관들의 심사를 통해 결정되므로, 최대한 높은 성적과 좋은 서류를 준비하는 것이 중요합니다. 또한, 동의대학교 홈페이지나 입학처에 문의하여 가장 최신 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.8174467086791992</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급은 동의대학교의 경우 일반적으로 합격 가능성을 높게 만드는 점수입니다. 그러나 정확한 합격 여부는 여러 요소가 결합되어 결정되므로 다음과 같은 사항들을 고려해야 합니다:
+1. **모집단위와 경쟁률**: 보육가정상담학과의 모집인원과 지원 인원, 그리고 경쟁률을 확인해야 합니다.
+2. **성적 외 평가 요소**: 동의대학교는 학생부 종합전형 등에서 성적 외 평가도 중요하게 고려하므로, 인성, 공동체역량 등의 평가에서도 좋은 점수를 받았다면 더 높은 확률로 합격할 수 있습니다.
+3. **등급 변환**: 동의대학교는 등급을 백분위로 변환하여 성적을 산출하기 때문에, 5.33이라는 등급이 실제 백분위 점수로 어느 정도인지 확인해야 합니다.
+4. **최저합격선**: 각 모집단위별 최저합격선을 확인하고, 자신의 등급이 그 기준을 충족하는지 판단해야 합니다.
+5. **전형요소 반영 비율**: 동의대학교는 학생부 종합전형에서 서류 평가와 면접 평가를 포함하므로, 이 부분에서도 좋은 점수를 받았다면 더 높은 확률로 합격할 수 있습니다.
+따라서 5.33이라는 등급만으로는 정확한 결론을 내리기는 어렵습니다. 모집단위의 특성과 경쟁 상황, 그리고 개인의 전반적인 평가 요소들을 종합적으로 고려해야 합니다. 만약 더 자세한 정보를 원하시면 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.6867854595184326</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 나군 학생부교과(농어촌학생전형)의 경우, 충원 절차가 여러 차례 진행되며 각 차례별로 예비 순위를 설정합니다. 예비 12번을 받았다는 것은 해당 지원자가 3차 충원에서 12번째로 예비로 선정된 것입니다.
+이런 상황에서는 합격 가능성에 대해 다음과 같이 판단할 수 있습니다:
+1. **최종 합격 가능**: 예비 순위가 높은 경우, 최종 합격 가능성은 높습니다. 하지만 3차 충원에서 12번째로 선정되었다는 것은 가장 높은 확률로는 합격이 어렵다고 볼 수 있습니다.
+2. **전형 일정 확인**: 3차 충원 합격자 발표 및 등록 기간(2024년 2월 15일 ~ 2024년 2월 20일) 동안, 예비 학생들은 전화 통보를 받게 됩니다. 이 시기에는 합격 여부가 결정됩니다.
+3. **전화 통보 확인**: 만약 전화 통보를 받지 못했다면, 합격 가능성은 낮아집니다. 하지만 전화 통보를 받았다면, 최종 합격 가능성이 높습니다.
+4. **기타 요인**: 학교폭력 여부, 서류 평가 결과 등 다른 평가 항목도 고려해야 합니다.
+따라서, 예비 12번을 받은 상태에서는 합격 가능성은 낮지만, 최종 결정은 전화 통보를 통해 확인할 수 있습니다. 만약 전화 통보를 받지 못했다면, 학교에 연락하여 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9174872040748596</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입학에서는 수능 점수가 학생들의 입학 가능성을 결정짓는 중요한 요소 중 하나이므로, 이 점수로는 대부분의 대학과 전공에서 합격할 확률이 매우 높습니다.
+유아교육학과에 대한 판단은 다음과 같습니다:
+1. 유아교육학과의 경우, 수능 성적이 주요 평가 요인 중 하나일 것입니다만, 다른 평가 항목들도 중요합니다:
+   - 인성 및 창의력
+   - 학교생활기록부
+   - 면접 등
+2. 4.75라는 점수는 대부분의 대학에서 좋은 성적을 받은 것으로 보입니다. 이 정도 성적이면 유아교육학과에서도 충분히 입학할 수 있을 가능성이 높습니다.
+3. 그러나 유아교육학과는 특성화된 전공이므로, 학교생활기록부와 면접 등 다른 평가 항목들도 중요하게 고려될 것입니다.
+4. 각 대학별로 정시모집의 수능 점수 기준이 다르므로, 해당 대학의 정시 모집요강을 꼭 확인해보세요.
+결론적으로 4.75라는 성적은 유아교육학과에서도 충분히 입학할 수 있는 수준입니다. 그러나 다른 평가 항목들도 고려되어야 하므로, 해당 대학의 정시 모집요강을 꼭 확인하시고, 학교생활기록부와 면접 준비를 철저하게 해보세요.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7664896249771118</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지원자의 성적(등급)만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교 정시 모집에서 보육·가정상담학과의 경쟁률과 모집인원, 지원자들의 등급 분포 등을 고려해야 합니다.
+보육·가정상담학과의 경우 다음과 같은 특징이 있습니다:
+1. **경쟁률**: 4.16이라는 등급은 상당히 높은 수준입니다. 이는 경쟁률이 높을 가능성이 큽니다.
+2. **모집인원**: 정확한 모집인원은 공시되어 있지 않지만, 일반적으로 경쟁률이 높은 학과일 경우 모집인원도 적게 설정되는 경향이 있습니다.
+따라서:
+- **경쟁률이 높을 가능성이 크므로** 4.16 등급으로 최초합격하는 확률은 낮을 수 있습니다.
+- **충원 과정에서는 기회가 있을 수 있지만**, 이 역시 경쟁률에 따라 달라질 수 있습니다.
+추천 사항:
+1. **수능 성적 확인**: 최종적으로는 수능 성적이 결정적인 역할을 합니다. 4.16 등급은 좋은 성적입니다만, 실제 수능 점수가 중요합니다.
+2. **모집인원과 경쟁률 확인**: 동의대학교 입학 홈페이지나 모집요강에서 해당 학과의 정확한 모집인원과 경쟁률을 확인해보세요.
+3. **추가 지원 계획**: 최초합격이 어렵다고 판단되면, 다른 합격 가능성 있는 학과로도 지원하는 것이 좋습니다.
+결론적으로, 4.16 등급으로 보육·가정상담학과에 최초합격하기는 어려울 수 있지만, 충원 과정에서는 기회를 얻을 수도 있습니다. 정확한 정보와 예상 경쟁률 등을 확인하시고, 추가 지원 계획을 세우는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7322439551353455</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어융합학과는 정시 모집에서 나군(일반학생전형)으로 모집됩니다. 나군 학생부종합 전형은 수능 성적과 서류 평가를 통해 선발되며, 소프트웨어융합학과는 다음과 같은 기준을 따릅니다:
+- **수능 성적**: 
+  - 국어: 표준점수
+  - 수학: 표준점수 + 가산점 (미적분 또는 기하 응시자)
+  - 영어: 등급 점수
+  - 탐구: 표준점수
+- **전형요소 반영비율**: 
+  - 서류(학생부): 60%
+  - 면접: 40%
+**평균 등급 예상**:
+- **국어**: 평균 3.75등급
+- **수학**: 평균 5.06등급 + 가산점 (미적분 또는 기하 응시자)
+- **영어**: 평균 4.53등급
+- **탐구**: 평균 5.78등급
+**예상 합계 점수**:
+- **국어 + 수학 + 영어 + 탐구 (가산점 포함)**: 
+  - 예상 평균 합계 점수는 대략 370점 이상이 필요할 것으로 보입니다.
+따라서, 국어와 수학의 등급이 높고, 탐구 과목에서도 좋은 성적을 받은 경우, 그리고 영어 등급도 괜찮다면 소프트웨어융합학과에 합격 가능성이 있습니다. 하지만 최종 합격 여부는 모집인원과 지원자들의 경쟁률에 따라 결정되므로, 정확한 예상 점수보다는 개인의 성적을 잘 준비하고 서류 평가에서도 좋은 결과를 얻어야 합니다.
+추가적으로, 동의대학교 입학 홈페이지 (http://ipsi.deu.ac.kr)에서 최신 정보와 더 자세한 지침을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5703975558280945</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>『소프트웨어융합학과』의 경우, 서류 평가와 면접 평가가 각각 60%와 40%의 비율로 반영됩니다. 따라서 서류 평가에서 중요한 역할을 하는데, 이는 학업역량, 전공적합성 등에 대한 내용이 포함되어 있습니다.
+서류 준비 시 주의해야 할 사항은 다음과 같습니다:
+1. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 해결하기 위한 노력에 대해 자세히 기재해야 합니다.
+2. **전공적합성**: 지원 전공(계열)에 대한 관심과 이해, 진로 탐색 활동을 통한 성장과정과 결과를 강조해야 합니다.
+또한, 서류 평가에서 중요한 역할을 하는 학교생활기록부의 내용이 과학적이고 구체적이어야 하며, 교사의 평가와 그 근거도 함께 제출해야 합니다. 
+따라서, 면접 점수보다는 세특(서류) 내용을 많이 보시지만, 서류 준비를 충분히 해야 합니다.
+추가적으로, 동점자 처리 시에는 서류 평가에서 공동체역량과 전공적합성 영역의 성적이 중요한 기준이 됩니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.4816398024559021</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자를 분석해보겠습니다.
+- **최종등록자의 평균 수능 점수**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 약 330.11
+  - 영어 등급: 약 3.30
+  - 수능 4개 영역 등급: 약 4.06
+- **지원자의 성적**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 4.08
+  - 영어 등급: 3.18 (추정, 실제 데이터는 제공되지 않았습니다)
+  - 수능 4개 영역 등급: 4.06
+**분석 결과**:
+- 지원자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 최종등록자 평균보다 약간 높습니다.
+- 영어 등급은 최종등록자 평균보다 약간 낮지만, 지원자의 수능 4개 영역 등급이 최종등록자 평균과 동일합니다.
+따라서, 지원자의 성적이 소프트웨어공학부의 최초합격자로 가능한 것으로 보입니다. 하지만 최종 합격 여부는 면접 결과나 기타 평가 요소에 따라 결정될 수 있으므로, 정확한 판단을 위해서는 전체 평가 기준을 고려해야 합니다.
+추천: 지원자의 성적과 전형요건을 종합적으로 검토하여 최종 합격 가능성 여부를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.847353994846344</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>5등급은 영어 성적이므로, 이 점수만으로는 정시 모집에서 합격을 보장할 수 없습니다. 정시 모집의 경우 국어, 수학, 영어 등급, 탐구 과목의 표준점수 등을 종합적으로 평가합니다.
+소프트웨어융합학과의 경우, 정시 가군(일반학생전형)에서는 다음과 같은 방식으로 성적을 산출합니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급 점수 + 탐구 표준점수
+- 또는 수능 4개 영역 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+따라서, 5등급의 영어 성적만으로는 평균적인 성적이 낮아 보입니다. 탐구 과목의 성적과 국어, 수학 등의 성적도 고려되어야 합니다.
+특히 소프트웨어융합학과는 공과대학에 속해 있어, 수학 성적이 중요합니다. 따라서 수학 성적을 높이는 것이 필요할 수 있습니다.
+만약 5등급의 영어 점수 외에도 다른 과목들의 성적이 좋지 않다면, 합격 가능성은 낮아 보입니다. 하지만 최종적인 합격 여부는 입학사정관이 평가하는 다양한 요소를 고려하여 결정하므로, 지원자는 모든 과목의 성적을 잘 준비하고, 추가적으로 면접 등 다른 평가 항목에서도 좋은 결과를 얻어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.7386630773544312</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 국어+수학+탐구(가산점 포함) 표준 변환 점수가 주어졌을 때, 동의대학교 신소재공학과에 지원할 가능성을 평가해볼 수 있습니다.
+신소재공학과는 전형별로 다소 다른 경쟁률을 보이지만, 일반적으로 다음과 같은 특징을 가집니다:
+1. **전체적인 경쟁률**: 신소재공학과의 경쟁률은 상당히 높습니다. 예를 들어, 일부 모집단위에서는 2.40 이상의 경쟁률을 보입니다.
+2. **국어+수학+탐구(가산점 포함) 표준 변환 점수**: 주어진 점수가 4.28이면 이는 상당히 높은 점수로, 평균적인 경쟁력을 가집니다.
+3. **경쟁률과 지원자 수**: 신소재공학과의 모집인원은 56명이며, 지원 인원이 많을 경우 경쟁률이 매우 높아질 수 있습니다.
+4. **개별 지원자의 성적 분포**: 신소재공학과의 평균 점수는 286.97이고 표준 편차는 15.35입니다. 주어진 점수가 이 범위 내에 위치하면 좋은 성적이지만, 경쟁률이 매우 높기 때문에 확실한 입학은 보장되지 않습니다.
+따라서, 주어진 점수로 신소재공학과에 지원한다면 다음과 같은 결론을 내릴 수 있습니다:
+- **가능성**: 4.28이라는 점수는 좋은 성적입니다. 그러나 신소재공학과의 경쟁률이 매우 높기 때문에, 확실한 입학은 보장되지 않습니다.
+- **확률**: 주어진 점수가 평균 이상이므로, 충분히 고려할 만한 수준입니다. 하지만 최상위권 지원자들과 경쟁해야 하므로, 낮은 확률을 기대해야 합니다.
+결론적으로, 4.28이라는 점수로 신소재공학과에 지원한다면 좋은 성적을 보여주지만, 입학 확률은 높지 않을 수 있습니다. 최종 결정은 해당 학과의 경쟁률과 지원자들의 성적 분포를 고려하여 내려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.5569212436676025</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 정시모집의 나군 수능(일반학생전형)에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 
+나군 수능(일반학생전형)은 주로 수능 성적을 기준으로 합격자를 선발하며, 실기 또는 실적을 포함한 전형요소도 반영됩니다. 그러나 이 전형에서는 일반적으로 자기소개서가 요구되지 않습니다.
+만약 특정 모집단위에 지원할 때 추가 서류나 면접이 필요하다면 해당 모집단위의 세부 안내를 확인하시기 바랍니다. 예를 들어, 디자인조형학과와 체육학과는 실기 절차가 포함되며, 일부 전형에서는 자기소개서 또는 추가 서류 제출이 요구될 수 있습니다.
+따라서 기본적으로 나군 수능(일반학생전형)에서는 자기소개서를 작성하지 않아도 됩니다. 하지만 세부적인 지원 단과대학 및 모집단위의 안내를 확인하시고, 필요하다면 추가 서류를 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.5731669664382935</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수가 주어졌을 때, 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집단위의 경쟁률**: 각 모집단위별로 다른 경쟁률이 있으므로, 해당 단과대학 및 모집단위의 경쟁률을 확인해야 합니다.
+2. **최저합격선**: 추가 모집 시에도 최저합격선은 유지됩니다. 4.5라는 점수가 최저합격선 이상인지 확인해야 합니다.
+3. **모집인원과 지원자 수**: 추가 모집 인원이 얼마나 되는지, 그리고 해당 단과대학 및 모집단위에서 지원자가 몇 명 있는지를 파악해야 합니다.
+4. **기타 평가 요소**: 일부 학과에서는 면접이나 서류평가 등 다른 평가 요소를 통해 선발을 결정하기도 하므로, 이에 대한 정보도 필요합니다.
+5. **학력 및 기타 자격**: 지원자의 학력 수준이 대학의 입학 기준에 미달하지 않는지 확인해야 합니다.
+따라서, 4.5라는 점수가 추가 모집에서 합격할 수 있는 충분한 점수일지는 모릅니다. 정확한 답변을 위해서는 해당 단과대학 및 모집단위의 최신 정보와 추가 모집 시의 조건 등을 확인해야 합니다.
+추가로, 동의대학교 입학 홈페이지나 관계부서에 문의하시거나, 모집요강을 자세히 읽어보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.806140661239624</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 신소재공학과에 대한 정확한 합격 기준 점수를 제공하기 위해서는 실제 수능 결과와 모집인원, 경쟁률 등을 고려해야 합니다. 하지만 일반적으로 신소재공학과 같은 공학 분야에서는 국어, 수학, 영어 등 주요 과목의 높은 점수가 필요합니다.
+신소재공학과는 정시모집에서 보통 1등급 이상이 요구되며, 경쟁률이 높아질수록 더 높은 점수가 필요할 수 있습니다. 예를 들어, 이전년도의 경우 국어와 수학을 포함한 합계가 200점 이상, 영어 등급이 B등급 이상이었다면 합격 가능성이 높았습니다.
+정확한 최저합격 점수는 동의대학교 입학처 홈페이지나 공식 발표 자료를 확인하는 것이 가장 정확합니다. 해당 정보는 매년 변동될 수 있으므로, 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.720458984375</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산한 결과 447점으로 계산되었다면, 작년 신소재공학과의 최종 평균 점수가 448점이었다는 정보만으로는 현재로서는 확실하게 가능성을 판단하기 어렵습니다. 하지만 몇 가지 요인을 고려해볼 수 있습니다:
+1. **모집 인원 및 지원자 수**: 작년 신소재공학과의 모집 인원이나 지원자 수가 어떻게 되었는지 확인해야 합니다. 만약 작년에 많은 지원자가 있었고, 경쟁률이 높았다면, 최종 합격 점수가 상대적으로 높아질 가능성이 있습니다.
+2. **경쟁률**: 현재와 작년의 경쟁률을 비교해볼 필요가 있습니다. 경쟁률이 올라갔다면, 합격 점수도 상승할 수 있습니다.
+3. **전형 요소**: 다른 전형 요소(면접, 서류 등)가 중요한 역할을 했는지 확인해야 합니다. 만약 서류나 면접에서 우수한 성적을 받았다면, 표준점수만으로 합격 점수가 높아질 수 있습니다.
+4. **변동성**: 입시 결과는 매년 변동성이 있을 수 있으므로 작년의 데이터만으로 현재의 가능성을 판단하기 어렵습니다.
+5. **입학사정관 평가**: 일부 전형에서는 입학사정관 평가가 중요한 역할을 하기 때문에, 이 부분에서 우수한 성적을 받았다면 합격 가능성은 높아질 수 있습니다.
+따라서, 작년의 데이터만으로는 확실하게 가능성을 판단하기 어렵습니다. 현재 지원자의 경쟁 상황과 전형 요소 등을 종합적으로 고려해야 합니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7263655662536621</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 수능 점수가 신소재공학과의 경우, 대략 4.1~4.2 정도로 예상되더라도 정시 모집에서 합격 가능성을 높이기 위해서는 다음과 같은 요인들을 고려해야 합니다:
+1. **전반적인 경쟁률**: 동의대학교 신소재공학과의 경쟁률을 확인해야 합니다. 경쟁률이 매우 높다면, 4.3등급대의 성적만으로 합격하기는 어렵습니다.
+2. **수능 반영 영역 및 가산점**: 동의대학교에서 수능 점수가 어떻게 반영되는지, 그리고 해당 전공에 대한 특별한 가산점이 있는지 확인해야 합니다. 예를 들어, 신소재공학과에서는 과학탐구 영역을 강조할 수 있습니다.
+3. **학생부 성적**: 학생부 교과성적이 중요합니다. 4년 동안의 성적 추이는 매우 중요한 요인입니다. 특히 과학 관련 과목에서 높은 점수를 받았다면 이점이 유리하게 작용할 수 있습니다.
+4. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서가 중요합니다. 이러한 서류에서도 자신의 강점을 잘 표현해야 합니다.
+5. **면접 성적**: 면접에서 좋은 점수를 받는 것도 합격에 도움이 될 수 있습니다.
+6. **추천사**: 교사 또는 관련 전문가의 추천서도 중요합니다.
+따라서, 4.3등급대의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 적절히 자기소개서와 추천서를 준비하고, 면접에서도 좋은 점수를 받으면 가능성을 높일 수 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 전화로 상담을 받아보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7508362531661987</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 인공지능학과는 다군 수능(일반학생전형)에 해당합니다. 이 전형에서 수능 성적이 100% 반영됩니다.
+다군 수능(일반학생전형)의 경우, 수능 성적은 다음과 같이 반영됩니다:
+- 국어: 25%
+- 수학: 25%
+- 영어: 25%
+- 탐구 (사회탐구 또는 과학탐구): 25%
+따라서 인공지능학과의 경우, 모든 수능 영역이 동일하게 반영되므로 각 영역의 표준점수를 평균한 점수가 합격 기준이 됩니다.
+예를 들어, 아래와 같은 성적을 가정해보겠습니다:
+- 국어: 104
+- 수학(미적분): 108
+- 영어: 4등급 (점수: 131)
+- 탐구 (물리Ⅰ): 59
+이 경우, 각 영역의 표준점수를 평균하면 다음과 같습니다:
+(104 + 108 + 131 + 59) / 4 = 102.75
+따라서 이 학생은 102.75 이상의 점수가 필요합니다.
+실제 합격 기준 점수는 동의대학교 입학처 홈페이지나 공식 안내 자료를 확인하시면 정확한 정보를 얻을 수 있습니다. 또한, 최근 몇 년간의 합격자 성적 분석을 통해 더 구체적인 정보를 얻으실 수도 있습니다.
+추가적으로, 인공지능학과는 실기 평가도 포함될 수 있으므로, 해당 전형의 세부 사항을 확인하시고 준비하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8282469511032104</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 등급으로 보이는데, 이 점수로 어떤 모집단위에 지원할 수 있는지 정확히 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. 지원하고자 하는 단과대학 및 계열:
+   - 인문사회과학대학, 상경대학, 공과대학 등에서 지원 가능성이 있습니다.
+2. 지원하는 모집단위의 수능 반영 영역 및 가산점:
+   - 각 모집단위별로 수능 반영 영역이 다르므로 확인 필요합니다.
+   - 예를 들어, 인문사회과학대학은 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%를 반영합니다.
+3. 지원자의 전반적인 성적 평균:
+   - 수능 점수 외에 학교성적 등 다른 요소도 고려됩니다.
+4. 모집단위별 최저합격 기준:
+   - 각 모집단위의 최저합격 기준을 확인해야 합니다.
+5. 지원자의 전공 적합성 및 인성 평가:
+   - 일부 모집단위에서는 학업역량과 전공적합성을 중요하게 고려합니다.
+따라서, 정확한 답변을 드리기 위해서는:
+1. 지원하고자 하는 단과대학 및 계열을 알려주시면, 해당 분야의 수능 반영 영역을 확인할 수 있습니다.
+2. 지원자의 전체 성적 평균을 알려주시면, 그에 따른 합격 가능성 판단이 가능합니다.
+위 정보를 바탕으로 더 구체적인 조언을 드릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.7414954900741577</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 수준입니다. 하지만 교과 성적이 중요하기 때문에, 다음과 같은 요인들을 고려해볼 필요가 있습니다:
+1. **교과 성적**: 소프트웨어공학부에서는 국어, 수학, 영어 등 주요 과목의 성적이 매우 중요합니다. 4.2라는 점수는 이들 주요 과목에서도 높은 성적을 보여주어야 합니다.
+2. **전형 요소**: 소프트웨어공학부에서는 수능 성적뿐만 아니라 교과 성적도 반영합니다. 특히, 수학(미적분 또는 기하) 응시자는 수학의 표준점수에 10% 가산점을 받을 수 있습니다.
+3. **모집인원**: 각 모집단위별로 모집 인원이 다르므로, 해당 학과의 모집 인원과 지원자의 경쟁률을 고려해야 합니다.
+4. **전형 방식**: 소프트웨어공학부는 주요 과목의 성적을 반영하므로, 국어, 수학, 영어 등에서 높은 점수를 받았다면 충분히 가능성이 있습니다.
+5. **동점자 처리 기준**: 동점자가 발생할 경우, 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수가 상위자로 선발됩니다. 따라서, 이들 영역에서 높은 성적을 보여주면 유리합니다.
+6. **추천서 및 자기소개서**: 일부 학과에서는 추천서나 자기소개서도 고려할 수 있으므로, 이러한 부분에서도 좋은 평가를 받는 것이 도움이 될 수 있습니다.
+결론적으로, 4.2라는 점수만으로는 확실한 결정을 내리기는 어렵지만, 교과 성적이 높다면 소프트웨어공학부에 지원하는 것은 가능성이 있습니다. 자세한 정보와 전형 방식을 확인하고, 필요하다면 추가적인 준비를 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.6108923554420471</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학, 환경공학, 응용화학)의 정시 일반학생전형에 지원 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **모집인원과 경쟁률**: 화학환경공학부의 모집인원과 현재의 경쟁률을 확인해야 합니다.
+2. **성적 산출방법**: 성적 산출 방식이 어떻게 되는지 확인해야 합니다. 예를 들어, 국어, 수학, 영어 등 주요 과목의 점수와 탐구 과목의 점수가 어떻게 반영되는지 알아야 합니다.
+3. **전형요소**: 전형요소 중에서 성적 외에 다른 요소(면접, 추천서 등)가 있는지 확인해야 합니다.
+4. **최저합격선**: 해당 학과의 최저합격선을 확인해야 합니다. 3.92라는 점수가 최저합격선보다 높다면 지원 가능성이 있습니다.
+5. **전형요소 반영비율**: 성적 외에 다른 요소가 얼마나 반영되는지 확인해야 합니다. 예를 들어, 실기/실적 위주 전형에서는 서류나 면접 등이 중요한 역할을 할 수 있습니다.
+6. **학과 특성**: 화학환경공학부의 특성을 고려하여 지원자의 적합성을 판단해야 합니다. 예를 들어, 특정 과목이나 실기 능력이 요구되는 학과는 성적 외 요소가 더 중요할 수 있습니다.
+위와 같은 정보들을 종합적으로 고려하여 결정을 내리는 것이 좋습니다. 만약 위의 정보 중 일부가 부족하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. (https://ipsi.deu.ac.kr/main.do)
+또한, 최종적인 판단은 동의대학교 입학관리위원회에서 하므로, 해당 학교의 공식 정보를 참고하시고, 필요하다면 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.7181648015975952</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 중등 교육과정에서의 평균 등급을 나타내는 것으로 보입니다. 동의대학교 화학환경공학부에 지원하시려면, 정시 모집에서 수능 일반학생전형으로 지원할 수 있습니다.
+수능 일반학생전형의 경우, 주요 요소로 수능 점수가 반영되며, 다른 전형 요소들도 고려될 수 있습니다. 동의대학교 화학환경공학부는 공과대학에 속해 있으며, 해당 학과의 모집요강을 확인하여 자세한 정보를 얻으실 필요가 있습니다.
+수능 점수만으로 지원 가능성을 판단하는 것은 어렵습니다. 다음과 같은 요소들을 고려해야 합니다:
+1. **수능 성적**: 수능 국어, 수학(미적분 또는 기하), 영어 등급을 확인하세요.
+2. **전형요소 반영비율**: 동의대학교 화학환경공학부의 전형요소 반영비율을 확인하여 수능 점수 외에 다른 요소들도 중요하다는 것을 인지해야 합니다.
+3. **모집인원 및 지원자 경쟁률**: 해당 학과의 모집인원과 지원자의 수를 비교하여 경쟁률을 파악하세요.
+따라서, 정확한 가능성을 판단하기 위해서는 동의대학교 화학환경공학부의 공식 모집요강을 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.769716739654541</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 한국의 대학 수능 평균 점수(대략 500점)에 비해 상당히 낮은 점수입니다. 영화학과는 예체능 분야로, 실기와 서류가 중요한 역할을 합니다. 따라서 단순 수능 성적만으로 합격하기는 어렵습니다.
+영화학과의 경우, 일반적으로 다음과 같은 요소들이 고려됩니다:
+1. **수능 점수**: 4.2점은 낮은 편이므로, 다른 요소들에 더 의존하게 됩니다.
+2. **실기 평가**: 시나리오 작성, 시각적 표현 등 실기 부분에서 좋은 성과를 보여야 합니다.
+3. **서류 평가**: 학교생활기록부, 자기소개서 등의 서류 평가도 중요합니다.
+따라서 수능 점수만으로는 합격하기 어렵다고 볼 수 있습니다. 실기와 서류 부분에서 좋은 성과를 보여야 합니다. 또한, 해당 대학의 전형요소 반영 비율을 확인하여 전체적인 평가 방식을 이해하는 것이 중요합니다.
+추천되는 조치:
+1. **실기를 준비하세요**: 시나리오 작성 등 실기 부분에 집중해보세요.
+2. **서류를 잘 준비하세요**: 자기소개서와 학교생활기록부 등을 철저히 검토하고 수정하여 최선의 결과를 얻으세요.
+3. **추천서 받기**: 가능하다면 선생님이나 지도老师的，根据您提供的信息，这位学生在申请电影学专业时确实面临了一些挑战。虽然他的高考成绩（420分左右）相对较低，但电影学专业的录取通常不仅仅依赖于高考分数，还会综合考虑其他因素如实操能力、个人陈述和推荐信等。
+为了提高被录取的机会，建议该学生：
+1. **加强实操训练**：参加相关的艺术课程或工作坊，提升自己的创作能力和实际操作技巧。
+2. **完善个人陈述**：撰写一份详细且有说服力的个人陈述，突出自己对电影的热情、兴趣以及未来的职业规划。
+3. **获取推荐信**：如果可能的话，争取获得老师或其他专业人士的推荐信，以增加申请的竞争力。
+此外，建议该学生密切关注目标学校的招生信息和要求，并按照学校的具体指导进行准备。希望这些建议能帮助到这位学生！</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7449232339859009</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是翻译：
+面试流程如下：
+1. 进入候考室
+2. 确认身份
+3. 移动到考场外
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 回答与学业能力、专业匹配性相关的共同问题及提问
+7. 其他问题（包括提交文件的真实性验证）
+8. 离场
+请注意，这个流程适用于所有类型的面试。如果有任何特殊安排或变化，请参考具体的通知或说明。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.4610905349254608</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7822411063313485</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.774868291914463</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7725165584683418</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7785546991229058</v>
+      <c r="D305" t="n">
+        <v>0.7765419855713844</v>
       </c>
     </row>
   </sheetData>
